--- a/Income/PTC_inc.xlsx
+++ b/Income/PTC_inc.xlsx
@@ -2156,16 +2156,16 @@
         <v>0.7635</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.7511</v>
+        <v>0.7558</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.7458</v>
+        <v>0.7507</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.7381</v>
+        <v>0.7431</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.732</v>
+        <v>0.7373</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.7409</v>
@@ -3680,16 +3680,16 @@
         <v>0.245</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.2283</v>
+        <v>0.2198</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.2215</v>
+        <v>0.2127</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.189</v>
+        <v>0.1798</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.1268</v>
+        <v>0.1171</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.1122</v>
